--- a/Data/collapsed database manual cases/guanajuato_collapsed_edited.xlsx
+++ b/Data/collapsed database manual cases/guanajuato_collapsed_edited.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7da8e9ec94b4821/Documents/ITAM/RA - Horacio/Monitoring Brokers/Data/States/guanajuato/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpzorrilla/Documents/GitHub/The-Mexican-municipal-elections-electoral-precinct-level-database/Data/collapsed database manual cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{17CCEEE6-9136-974F-A105-B23B314C848A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{107FF437-7ADA-B449-9BD6-7F133E0127BF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC58D7A3-CF30-7944-BAE1-064614884D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25720" yWindow="0" windowWidth="25480" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22040" yWindow="7560" windowWidth="22040" windowHeight="14840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2859" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2867" uniqueCount="742">
   <si>
     <t>uniqueid</t>
   </si>
@@ -2243,13 +2243,19 @@
   </si>
   <si>
     <t>MERCED VALDOVINO DIEGO</t>
+  </si>
+  <si>
+    <t>LUIS GERARDO SANCHEZ SANCHEZ</t>
+  </si>
+  <si>
+    <t>ANASTACIO ROSILES PEREZ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2279,6 +2285,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2301,13 +2313,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2324,10 +2338,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2618,17 +2628,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:S324"/>
+  <dimension ref="A1:S331"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F329" sqref="F329"/>
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="D330" sqref="D330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41.6640625" bestFit="1" customWidth="1"/>
@@ -15679,6 +15689,81 @@
         <v>739</v>
       </c>
     </row>
+    <row r="325" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A325" s="4">
+        <v>11033</v>
+      </c>
+      <c r="B325" s="4">
+        <v>2024</v>
+      </c>
+      <c r="C325" t="s">
+        <v>19</v>
+      </c>
+      <c r="E325" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F325" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="H325" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="326" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A326" s="4">
+        <v>11041</v>
+      </c>
+      <c r="B326" s="4">
+        <v>2024</v>
+      </c>
+      <c r="C326" t="s">
+        <v>19</v>
+      </c>
+      <c r="E326" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F326" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="H326" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="327" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A327" s="5"/>
+      <c r="B327" s="5"/>
+      <c r="E327" s="5"/>
+      <c r="F327" s="5"/>
+      <c r="G327" s="5"/>
+    </row>
+    <row r="328" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A328" s="5"/>
+      <c r="B328" s="5"/>
+      <c r="E328" s="5"/>
+      <c r="F328" s="5"/>
+      <c r="G328" s="5"/>
+    </row>
+    <row r="329" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A329" s="5"/>
+      <c r="B329" s="5"/>
+      <c r="E329" s="5"/>
+      <c r="F329" s="5"/>
+      <c r="G329" s="5"/>
+    </row>
+    <row r="330" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A330" s="5"/>
+      <c r="B330" s="5"/>
+      <c r="E330" s="5"/>
+      <c r="F330" s="5"/>
+      <c r="G330" s="5"/>
+    </row>
+    <row r="331" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A331" s="5"/>
+      <c r="B331" s="5"/>
+      <c r="E331" s="5"/>
+      <c r="F331" s="5"/>
+      <c r="G331" s="5"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:S324" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="5">

--- a/Data/collapsed database manual cases/guanajuato_collapsed_edited.xlsx
+++ b/Data/collapsed database manual cases/guanajuato_collapsed_edited.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpzorrilla/Documents/GitHub/The-Mexican-municipal-elections-electoral-precinct-level-database/Data/collapsed database manual cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC58D7A3-CF30-7944-BAE1-064614884D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D87807C-F6DB-CA49-8771-644C43017BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22040" yWindow="7560" windowWidth="22040" windowHeight="14840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4480" yWindow="500" windowWidth="31360" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2867" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="752">
   <si>
     <t>uniqueid</t>
   </si>
@@ -2249,6 +2249,36 @@
   </si>
   <si>
     <t>ANASTACIO ROSILES PEREZ</t>
+  </si>
+  <si>
+    <t>MORENA_PT_PES</t>
+  </si>
+  <si>
+    <t>ALEJANDRO TIRADO ZU√ëIGA</t>
+  </si>
+  <si>
+    <t>MORENA</t>
+  </si>
+  <si>
+    <t>MARIA DEL CARMEN ORTIZ TERRAZAS</t>
+  </si>
+  <si>
+    <t>JOSE CARLOS NIETO JUAREZ</t>
+  </si>
+  <si>
+    <t>MARIA BEATRIZ HERNANDEZ CRUZ</t>
+  </si>
+  <si>
+    <t>GENARO MARTIN ZU√ëIGA SOTO</t>
+  </si>
+  <si>
+    <t>militancia</t>
+  </si>
+  <si>
+    <t>https://sil.gobernacion.gob.mx/Librerias/pp_PerfilLegislador.php?Referencia=9228136</t>
+  </si>
+  <si>
+    <t>https://periodicocorreo.com.mx/vida-publica/2021/jan/07/anastasio-rosiles-va-una-vez-mas-por-la-alcaldia-9217.html</t>
   </si>
 </sst>
 </file>
@@ -2313,7 +2343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2321,7 +2351,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2631,7 +2660,7 @@
   <dimension ref="A1:S331"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="D330" sqref="D330"/>
+      <selection activeCell="I338" sqref="I338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15708,6 +15737,9 @@
       <c r="H325" t="s">
         <v>30</v>
       </c>
+      <c r="I325" t="s">
+        <v>750</v>
+      </c>
     </row>
     <row r="326" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A326" s="4">
@@ -15728,41 +15760,109 @@
       <c r="H326" t="s">
         <v>30</v>
       </c>
+      <c r="I326" s="4" t="s">
+        <v>751</v>
+      </c>
     </row>
     <row r="327" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A327" s="5"/>
-      <c r="B327" s="5"/>
-      <c r="E327" s="5"/>
-      <c r="F327" s="5"/>
-      <c r="G327" s="5"/>
+      <c r="A327">
+        <v>11002</v>
+      </c>
+      <c r="B327">
+        <v>2021</v>
+      </c>
+      <c r="E327" t="s">
+        <v>742</v>
+      </c>
+      <c r="F327" t="s">
+        <v>743</v>
+      </c>
+      <c r="H327" t="s">
+        <v>744</v>
+      </c>
+      <c r="I327" t="s">
+        <v>749</v>
+      </c>
     </row>
     <row r="328" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A328" s="5"/>
-      <c r="B328" s="5"/>
-      <c r="E328" s="5"/>
-      <c r="F328" s="5"/>
-      <c r="G328" s="5"/>
+      <c r="A328">
+        <v>11004</v>
+      </c>
+      <c r="B328">
+        <v>2021</v>
+      </c>
+      <c r="E328" t="s">
+        <v>742</v>
+      </c>
+      <c r="F328" t="s">
+        <v>745</v>
+      </c>
+      <c r="H328" t="s">
+        <v>744</v>
+      </c>
+      <c r="I328" t="s">
+        <v>749</v>
+      </c>
     </row>
     <row r="329" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A329" s="5"/>
-      <c r="B329" s="5"/>
-      <c r="E329" s="5"/>
-      <c r="F329" s="5"/>
-      <c r="G329" s="5"/>
+      <c r="A329">
+        <v>11009</v>
+      </c>
+      <c r="B329">
+        <v>2021</v>
+      </c>
+      <c r="E329" t="s">
+        <v>742</v>
+      </c>
+      <c r="F329" t="s">
+        <v>746</v>
+      </c>
+      <c r="H329" t="s">
+        <v>744</v>
+      </c>
+      <c r="I329" t="s">
+        <v>749</v>
+      </c>
     </row>
     <row r="330" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A330" s="5"/>
-      <c r="B330" s="5"/>
-      <c r="E330" s="5"/>
-      <c r="F330" s="5"/>
-      <c r="G330" s="5"/>
+      <c r="A330">
+        <v>11027</v>
+      </c>
+      <c r="B330">
+        <v>2021</v>
+      </c>
+      <c r="E330" t="s">
+        <v>742</v>
+      </c>
+      <c r="F330" t="s">
+        <v>747</v>
+      </c>
+      <c r="H330" t="s">
+        <v>273</v>
+      </c>
+      <c r="I330" t="s">
+        <v>749</v>
+      </c>
     </row>
     <row r="331" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A331" s="5"/>
-      <c r="B331" s="5"/>
-      <c r="E331" s="5"/>
-      <c r="F331" s="5"/>
-      <c r="G331" s="5"/>
+      <c r="A331">
+        <v>11032</v>
+      </c>
+      <c r="B331">
+        <v>2021</v>
+      </c>
+      <c r="E331" t="s">
+        <v>742</v>
+      </c>
+      <c r="F331" t="s">
+        <v>748</v>
+      </c>
+      <c r="H331" t="s">
+        <v>744</v>
+      </c>
+      <c r="I331" t="s">
+        <v>749</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:S324" xr:uid="{00000000-0001-0000-0000-000000000000}">
